--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cxcl13-Cxcr5.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cxcl13-Cxcr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,15 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
   <si>
     <t>Cxcl13</t>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.10245801532049</v>
+        <v>3.384408333333333</v>
       </c>
       <c r="H2">
-        <v>3.10245801532049</v>
+        <v>10.153225</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.8120564151155119</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.8120564151155117</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.474942000846254</v>
+        <v>0.7391156666666667</v>
       </c>
       <c r="N2">
-        <v>0.474942000846254</v>
+        <v>2.217347</v>
       </c>
       <c r="O2">
-        <v>0.1374883274095557</v>
+        <v>0.1499959547341516</v>
       </c>
       <c r="P2">
-        <v>0.1374883274095557</v>
+        <v>0.1499959547341516</v>
       </c>
       <c r="Q2">
-        <v>1.473487617337812</v>
+        <v>2.501469221563889</v>
       </c>
       <c r="R2">
-        <v>1.473487617337812</v>
+        <v>22.513222994075</v>
       </c>
       <c r="S2">
-        <v>0.1374883274095557</v>
+        <v>0.1218051772832438</v>
       </c>
       <c r="T2">
-        <v>0.1374883274095557</v>
+        <v>0.1218051772832438</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +590,929 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>3.384408333333333</v>
+      </c>
+      <c r="H3">
+        <v>10.153225</v>
+      </c>
+      <c r="I3">
+        <v>0.8120564151155119</v>
+      </c>
+      <c r="J3">
+        <v>0.8120564151155117</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M3">
+        <v>0.235424</v>
+      </c>
+      <c r="N3">
+        <v>0.706272</v>
+      </c>
+      <c r="O3">
+        <v>0.04777688965326525</v>
+      </c>
+      <c r="P3">
+        <v>0.04777688965326525</v>
+      </c>
+      <c r="Q3">
+        <v>0.7967709474666665</v>
+      </c>
+      <c r="R3">
+        <v>7.1709385272</v>
+      </c>
+      <c r="S3">
+        <v>0.03879752973719997</v>
+      </c>
+      <c r="T3">
+        <v>0.03879752973719997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>3.384408333333333</v>
+      </c>
+      <c r="H4">
+        <v>10.153225</v>
+      </c>
+      <c r="I4">
+        <v>0.8120564151155119</v>
+      </c>
+      <c r="J4">
+        <v>0.8120564151155117</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.038077</v>
+      </c>
+      <c r="N4">
+        <v>0.114231</v>
+      </c>
+      <c r="O4">
+        <v>0.007727337176020206</v>
+      </c>
+      <c r="P4">
+        <v>0.007727337176020205</v>
+      </c>
+      <c r="Q4">
+        <v>0.1288681161083333</v>
+      </c>
+      <c r="R4">
+        <v>1.159813044975</v>
+      </c>
+      <c r="S4">
+        <v>0.006275033725547791</v>
+      </c>
+      <c r="T4">
+        <v>0.00627503372554779</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>3.10245801532049</v>
-      </c>
-      <c r="H3">
-        <v>3.10245801532049</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>2.97947489253465</v>
-      </c>
-      <c r="N3">
-        <v>2.97947489253465</v>
-      </c>
-      <c r="O3">
-        <v>0.8625116725904443</v>
-      </c>
-      <c r="P3">
-        <v>0.8625116725904443</v>
-      </c>
-      <c r="Q3">
-        <v>9.243695761790281</v>
-      </c>
-      <c r="R3">
-        <v>9.243695761790281</v>
-      </c>
-      <c r="S3">
-        <v>0.8625116725904443</v>
-      </c>
-      <c r="T3">
-        <v>0.8625116725904443</v>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3.384408333333333</v>
+      </c>
+      <c r="H5">
+        <v>10.153225</v>
+      </c>
+      <c r="I5">
+        <v>0.8120564151155119</v>
+      </c>
+      <c r="J5">
+        <v>0.8120564151155117</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>3.914954</v>
+      </c>
+      <c r="N5">
+        <v>11.744862</v>
+      </c>
+      <c r="O5">
+        <v>0.794499818436563</v>
+      </c>
+      <c r="P5">
+        <v>0.7944998184365629</v>
+      </c>
+      <c r="Q5">
+        <v>13.24980294221666</v>
+      </c>
+      <c r="R5">
+        <v>119.24822647995</v>
+      </c>
+      <c r="S5">
+        <v>0.6451786743695205</v>
+      </c>
+      <c r="T5">
+        <v>0.6451786743695203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.203433</v>
+      </c>
+      <c r="H6">
+        <v>0.610299</v>
+      </c>
+      <c r="I6">
+        <v>0.04881180295803371</v>
+      </c>
+      <c r="J6">
+        <v>0.0488118029580337</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.7391156666666667</v>
+      </c>
+      <c r="N6">
+        <v>2.217347</v>
+      </c>
+      <c r="O6">
+        <v>0.1499959547341516</v>
+      </c>
+      <c r="P6">
+        <v>0.1499959547341516</v>
+      </c>
+      <c r="Q6">
+        <v>0.150360517417</v>
+      </c>
+      <c r="R6">
+        <v>1.353244656753</v>
+      </c>
+      <c r="S6">
+        <v>0.007321572986985553</v>
+      </c>
+      <c r="T6">
+        <v>0.007321572986985552</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.203433</v>
+      </c>
+      <c r="H7">
+        <v>0.610299</v>
+      </c>
+      <c r="I7">
+        <v>0.04881180295803371</v>
+      </c>
+      <c r="J7">
+        <v>0.0488118029580337</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.235424</v>
+      </c>
+      <c r="N7">
+        <v>0.706272</v>
+      </c>
+      <c r="O7">
+        <v>0.04777688965326525</v>
+      </c>
+      <c r="P7">
+        <v>0.04777688965326525</v>
+      </c>
+      <c r="Q7">
+        <v>0.047893010592</v>
+      </c>
+      <c r="R7">
+        <v>0.4310370953280001</v>
+      </c>
+      <c r="S7">
+        <v>0.002332076123702903</v>
+      </c>
+      <c r="T7">
+        <v>0.002332076123702903</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.203433</v>
+      </c>
+      <c r="H8">
+        <v>0.610299</v>
+      </c>
+      <c r="I8">
+        <v>0.04881180295803371</v>
+      </c>
+      <c r="J8">
+        <v>0.0488118029580337</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.038077</v>
+      </c>
+      <c r="N8">
+        <v>0.114231</v>
+      </c>
+      <c r="O8">
+        <v>0.007727337176020206</v>
+      </c>
+      <c r="P8">
+        <v>0.007727337176020205</v>
+      </c>
+      <c r="Q8">
+        <v>0.007746118341</v>
+      </c>
+      <c r="R8">
+        <v>0.06971506506900001</v>
+      </c>
+      <c r="S8">
+        <v>0.000377185259626187</v>
+      </c>
+      <c r="T8">
+        <v>0.0003771852596261869</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.203433</v>
+      </c>
+      <c r="H9">
+        <v>0.610299</v>
+      </c>
+      <c r="I9">
+        <v>0.04881180295803371</v>
+      </c>
+      <c r="J9">
+        <v>0.0488118029580337</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.914954</v>
+      </c>
+      <c r="N9">
+        <v>11.744862</v>
+      </c>
+      <c r="O9">
+        <v>0.794499818436563</v>
+      </c>
+      <c r="P9">
+        <v>0.7944998184365629</v>
+      </c>
+      <c r="Q9">
+        <v>0.796430837082</v>
+      </c>
+      <c r="R9">
+        <v>7.167877533738</v>
+      </c>
+      <c r="S9">
+        <v>0.03878096858771907</v>
+      </c>
+      <c r="T9">
+        <v>0.03878096858771906</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.5490623333333333</v>
+      </c>
+      <c r="H10">
+        <v>1.647187</v>
+      </c>
+      <c r="I10">
+        <v>0.1317422563022956</v>
+      </c>
+      <c r="J10">
+        <v>0.1317422563022955</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.7391156666666667</v>
+      </c>
+      <c r="N10">
+        <v>2.217347</v>
+      </c>
+      <c r="O10">
+        <v>0.1499959547341516</v>
+      </c>
+      <c r="P10">
+        <v>0.1499959547341516</v>
+      </c>
+      <c r="Q10">
+        <v>0.4058205725432222</v>
+      </c>
+      <c r="R10">
+        <v>3.652385152889</v>
+      </c>
+      <c r="S10">
+        <v>0.01976080551289413</v>
+      </c>
+      <c r="T10">
+        <v>0.01976080551289412</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.5490623333333333</v>
+      </c>
+      <c r="H11">
+        <v>1.647187</v>
+      </c>
+      <c r="I11">
+        <v>0.1317422563022956</v>
+      </c>
+      <c r="J11">
+        <v>0.1317422563022955</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.235424</v>
+      </c>
+      <c r="N11">
+        <v>0.706272</v>
+      </c>
+      <c r="O11">
+        <v>0.04777688965326525</v>
+      </c>
+      <c r="P11">
+        <v>0.04777688965326525</v>
+      </c>
+      <c r="Q11">
+        <v>0.1292624507626667</v>
+      </c>
+      <c r="R11">
+        <v>1.163362056864</v>
+      </c>
+      <c r="S11">
+        <v>0.006294235242026963</v>
+      </c>
+      <c r="T11">
+        <v>0.006294235242026961</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.5490623333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.647187</v>
+      </c>
+      <c r="I12">
+        <v>0.1317422563022956</v>
+      </c>
+      <c r="J12">
+        <v>0.1317422563022955</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.038077</v>
+      </c>
+      <c r="N12">
+        <v>0.114231</v>
+      </c>
+      <c r="O12">
+        <v>0.007727337176020206</v>
+      </c>
+      <c r="P12">
+        <v>0.007727337176020205</v>
+      </c>
+      <c r="Q12">
+        <v>0.02090664646633333</v>
+      </c>
+      <c r="R12">
+        <v>0.188159818197</v>
+      </c>
+      <c r="S12">
+        <v>0.001018016834777511</v>
+      </c>
+      <c r="T12">
+        <v>0.00101801683477751</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.5490623333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.647187</v>
+      </c>
+      <c r="I13">
+        <v>0.1317422563022956</v>
+      </c>
+      <c r="J13">
+        <v>0.1317422563022955</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.914954</v>
+      </c>
+      <c r="N13">
+        <v>11.744862</v>
+      </c>
+      <c r="O13">
+        <v>0.794499818436563</v>
+      </c>
+      <c r="P13">
+        <v>0.7944998184365629</v>
+      </c>
+      <c r="Q13">
+        <v>2.149553778132666</v>
+      </c>
+      <c r="R13">
+        <v>19.345984003194</v>
+      </c>
+      <c r="S13">
+        <v>0.104669198712597</v>
+      </c>
+      <c r="T13">
+        <v>0.1046691987125969</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.03079733333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.092392</v>
+      </c>
+      <c r="I14">
+        <v>0.00738952562415906</v>
+      </c>
+      <c r="J14">
+        <v>0.00738952562415906</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.7391156666666667</v>
+      </c>
+      <c r="N14">
+        <v>2.217347</v>
+      </c>
+      <c r="O14">
+        <v>0.1499959547341516</v>
+      </c>
+      <c r="P14">
+        <v>0.1499959547341516</v>
+      </c>
+      <c r="Q14">
+        <v>0.02276279155822222</v>
+      </c>
+      <c r="R14">
+        <v>0.204865124024</v>
+      </c>
+      <c r="S14">
+        <v>0.001108398951028216</v>
+      </c>
+      <c r="T14">
+        <v>0.001108398951028216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.03079733333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.092392</v>
+      </c>
+      <c r="I15">
+        <v>0.00738952562415906</v>
+      </c>
+      <c r="J15">
+        <v>0.00738952562415906</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.235424</v>
+      </c>
+      <c r="N15">
+        <v>0.706272</v>
+      </c>
+      <c r="O15">
+        <v>0.04777688965326525</v>
+      </c>
+      <c r="P15">
+        <v>0.04777688965326525</v>
+      </c>
+      <c r="Q15">
+        <v>0.007250431402666666</v>
+      </c>
+      <c r="R15">
+        <v>0.065253882624</v>
+      </c>
+      <c r="S15">
+        <v>0.0003530485503354235</v>
+      </c>
+      <c r="T15">
+        <v>0.0003530485503354234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.03079733333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.092392</v>
+      </c>
+      <c r="I16">
+        <v>0.00738952562415906</v>
+      </c>
+      <c r="J16">
+        <v>0.00738952562415906</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.038077</v>
+      </c>
+      <c r="N16">
+        <v>0.114231</v>
+      </c>
+      <c r="O16">
+        <v>0.007727337176020206</v>
+      </c>
+      <c r="P16">
+        <v>0.007727337176020205</v>
+      </c>
+      <c r="Q16">
+        <v>0.001172670061333333</v>
+      </c>
+      <c r="R16">
+        <v>0.010554030552</v>
+      </c>
+      <c r="S16">
+        <v>5.710135606871823E-05</v>
+      </c>
+      <c r="T16">
+        <v>5.710135606871821E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.03079733333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.092392</v>
+      </c>
+      <c r="I17">
+        <v>0.00738952562415906</v>
+      </c>
+      <c r="J17">
+        <v>0.00738952562415906</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.914954</v>
+      </c>
+      <c r="N17">
+        <v>11.744862</v>
+      </c>
+      <c r="O17">
+        <v>0.794499818436563</v>
+      </c>
+      <c r="P17">
+        <v>0.7944998184365629</v>
+      </c>
+      <c r="Q17">
+        <v>0.1205701433226667</v>
+      </c>
+      <c r="R17">
+        <v>1.085131289904</v>
+      </c>
+      <c r="S17">
+        <v>0.005870976766726704</v>
+      </c>
+      <c r="T17">
+        <v>0.005870976766726702</v>
       </c>
     </row>
   </sheetData>
